--- a/Results/Simulated/all-C01-vs-C02.xlsx
+++ b/Results/Simulated/all-C01-vs-C02.xlsx
@@ -358,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -931,26 +931,576 @@
         <v>0.26</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.415</v>
+      </c>
+      <c r="B52">
+        <v>0.295</v>
+      </c>
+      <c r="C52">
+        <v>0.315</v>
+      </c>
+    </row>
     <row r="53">
       <c r="A53">
-        <v>0.4347</v>
+        <v>0.515</v>
       </c>
       <c r="B53">
-        <v>0.3138</v>
+        <v>0.295</v>
       </c>
       <c r="C53">
-        <v>0.3146</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.006739178778771557</v>
+        <v>0.405</v>
       </c>
       <c r="B54">
-        <v>0.005220759191019275</v>
+        <v>0.245</v>
       </c>
       <c r="C54">
-        <v>0.005722922045135148</v>
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.475</v>
+      </c>
+      <c r="B55">
+        <v>0.34</v>
+      </c>
+      <c r="C55">
+        <v>0.355</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.49</v>
+      </c>
+      <c r="B56">
+        <v>0.275</v>
+      </c>
+      <c r="C56">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.475</v>
+      </c>
+      <c r="B57">
+        <v>0.375</v>
+      </c>
+      <c r="C57">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.365</v>
+      </c>
+      <c r="B58">
+        <v>0.315</v>
+      </c>
+      <c r="C58">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.48</v>
+      </c>
+      <c r="B59">
+        <v>0.35</v>
+      </c>
+      <c r="C59">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.41</v>
+      </c>
+      <c r="B60">
+        <v>0.325</v>
+      </c>
+      <c r="C60">
+        <v>0.335</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.42</v>
+      </c>
+      <c r="B61">
+        <v>0.32</v>
+      </c>
+      <c r="C61">
+        <v>0.335</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.365</v>
+      </c>
+      <c r="B62">
+        <v>0.31</v>
+      </c>
+      <c r="C62">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.405</v>
+      </c>
+      <c r="B63">
+        <v>0.29</v>
+      </c>
+      <c r="C63">
+        <v>0.295</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.385</v>
+      </c>
+      <c r="B64">
+        <v>0.34</v>
+      </c>
+      <c r="C64">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.455</v>
+      </c>
+      <c r="B65">
+        <v>0.325</v>
+      </c>
+      <c r="C65">
+        <v>0.335</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.385</v>
+      </c>
+      <c r="B66">
+        <v>0.26</v>
+      </c>
+      <c r="C66">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.46</v>
+      </c>
+      <c r="B67">
+        <v>0.35</v>
+      </c>
+      <c r="C67">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.505</v>
+      </c>
+      <c r="B68">
+        <v>0.37</v>
+      </c>
+      <c r="C68">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.455</v>
+      </c>
+      <c r="B69">
+        <v>0.27</v>
+      </c>
+      <c r="C69">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.4</v>
+      </c>
+      <c r="B70">
+        <v>0.33</v>
+      </c>
+      <c r="C70">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.365</v>
+      </c>
+      <c r="B71">
+        <v>0.3</v>
+      </c>
+      <c r="C71">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.42</v>
+      </c>
+      <c r="B72">
+        <v>0.295</v>
+      </c>
+      <c r="C72">
+        <v>0.295</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.375</v>
+      </c>
+      <c r="B73">
+        <v>0.28</v>
+      </c>
+      <c r="C73">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.425</v>
+      </c>
+      <c r="B74">
+        <v>0.33</v>
+      </c>
+      <c r="C74">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.485</v>
+      </c>
+      <c r="B75">
+        <v>0.325</v>
+      </c>
+      <c r="C75">
+        <v>0.325</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.465</v>
+      </c>
+      <c r="B76">
+        <v>0.34</v>
+      </c>
+      <c r="C76">
+        <v>0.335</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.48</v>
+      </c>
+      <c r="B77">
+        <v>0.34</v>
+      </c>
+      <c r="C77">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.41</v>
+      </c>
+      <c r="B78">
+        <v>0.29</v>
+      </c>
+      <c r="C78">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.365</v>
+      </c>
+      <c r="B79">
+        <v>0.305</v>
+      </c>
+      <c r="C79">
+        <v>0.305</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.425</v>
+      </c>
+      <c r="B80">
+        <v>0.365</v>
+      </c>
+      <c r="C80">
+        <v>0.355</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.46</v>
+      </c>
+      <c r="B81">
+        <v>0.325</v>
+      </c>
+      <c r="C81">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.39</v>
+      </c>
+      <c r="B82">
+        <v>0.34</v>
+      </c>
+      <c r="C82">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.415</v>
+      </c>
+      <c r="B83">
+        <v>0.3</v>
+      </c>
+      <c r="C83">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.42</v>
+      </c>
+      <c r="B84">
+        <v>0.355</v>
+      </c>
+      <c r="C84">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.41</v>
+      </c>
+      <c r="B85">
+        <v>0.305</v>
+      </c>
+      <c r="C85">
+        <v>0.305</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.435</v>
+      </c>
+      <c r="B86">
+        <v>0.325</v>
+      </c>
+      <c r="C86">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.475</v>
+      </c>
+      <c r="B87">
+        <v>0.3</v>
+      </c>
+      <c r="C87">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.42</v>
+      </c>
+      <c r="B88">
+        <v>0.35</v>
+      </c>
+      <c r="C88">
+        <v>0.325</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.455</v>
+      </c>
+      <c r="B89">
+        <v>0.3</v>
+      </c>
+      <c r="C89">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.425</v>
+      </c>
+      <c r="B90">
+        <v>0.305</v>
+      </c>
+      <c r="C90">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.455</v>
+      </c>
+      <c r="B91">
+        <v>0.355</v>
+      </c>
+      <c r="C91">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.485</v>
+      </c>
+      <c r="B92">
+        <v>0.32</v>
+      </c>
+      <c r="C92">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.375</v>
+      </c>
+      <c r="B93">
+        <v>0.32</v>
+      </c>
+      <c r="C93">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.45</v>
+      </c>
+      <c r="B94">
+        <v>0.295</v>
+      </c>
+      <c r="C94">
+        <v>0.295</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.45</v>
+      </c>
+      <c r="B95">
+        <v>0.325</v>
+      </c>
+      <c r="C95">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.365</v>
+      </c>
+      <c r="B96">
+        <v>0.295</v>
+      </c>
+      <c r="C96">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.545</v>
+      </c>
+      <c r="B97">
+        <v>0.32</v>
+      </c>
+      <c r="C97">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.49</v>
+      </c>
+      <c r="B98">
+        <v>0.29</v>
+      </c>
+      <c r="C98">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.46</v>
+      </c>
+      <c r="B99">
+        <v>0.335</v>
+      </c>
+      <c r="C99">
+        <v>0.335</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.375</v>
+      </c>
+      <c r="B100">
+        <v>0.295</v>
+      </c>
+      <c r="C100">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.42</v>
+      </c>
+      <c r="B101">
+        <v>0.31</v>
+      </c>
+      <c r="C101">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>0.4339</v>
+      </c>
+      <c r="B103">
+        <v>0.31505</v>
+      </c>
+      <c r="C103">
+        <v>0.31525</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>0.004591703101653827</v>
+      </c>
+      <c r="B104">
+        <v>0.003269459999276438</v>
+      </c>
+      <c r="C104">
+        <v>0.003409267672185049</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +1510,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1533,26 +2083,576 @@
         <v>0.23</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.41</v>
+      </c>
+      <c r="B52">
+        <v>0.285</v>
+      </c>
+      <c r="C52">
+        <v>0.295</v>
+      </c>
+    </row>
     <row r="53">
       <c r="A53">
-        <v>0.3846</v>
+        <v>0.39</v>
       </c>
       <c r="B53">
-        <v>0.2502</v>
+        <v>0.215</v>
       </c>
       <c r="C53">
-        <v>0.2505</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.005891605927772432</v>
+        <v>0.325</v>
       </c>
       <c r="B54">
-        <v>0.003943374707231441</v>
+        <v>0.255</v>
       </c>
       <c r="C54">
-        <v>0.004063902819021264</v>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.445</v>
+      </c>
+      <c r="B55">
+        <v>0.27</v>
+      </c>
+      <c r="C55">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.385</v>
+      </c>
+      <c r="B56">
+        <v>0.295</v>
+      </c>
+      <c r="C56">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.345</v>
+      </c>
+      <c r="B57">
+        <v>0.24</v>
+      </c>
+      <c r="C57">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.32</v>
+      </c>
+      <c r="B58">
+        <v>0.245</v>
+      </c>
+      <c r="C58">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.47</v>
+      </c>
+      <c r="B59">
+        <v>0.27</v>
+      </c>
+      <c r="C59">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.445</v>
+      </c>
+      <c r="B60">
+        <v>0.28</v>
+      </c>
+      <c r="C60">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.405</v>
+      </c>
+      <c r="B61">
+        <v>0.28</v>
+      </c>
+      <c r="C61">
+        <v>0.265</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.39</v>
+      </c>
+      <c r="B62">
+        <v>0.265</v>
+      </c>
+      <c r="C62">
+        <v>0.265</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.395</v>
+      </c>
+      <c r="B63">
+        <v>0.28</v>
+      </c>
+      <c r="C63">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.36</v>
+      </c>
+      <c r="B64">
+        <v>0.215</v>
+      </c>
+      <c r="C64">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.46</v>
+      </c>
+      <c r="B65">
+        <v>0.23</v>
+      </c>
+      <c r="C65">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.435</v>
+      </c>
+      <c r="B66">
+        <v>0.27</v>
+      </c>
+      <c r="C66">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.41</v>
+      </c>
+      <c r="B67">
+        <v>0.24</v>
+      </c>
+      <c r="C67">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.45</v>
+      </c>
+      <c r="B68">
+        <v>0.285</v>
+      </c>
+      <c r="C68">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.45</v>
+      </c>
+      <c r="B69">
+        <v>0.265</v>
+      </c>
+      <c r="C69">
+        <v>0.265</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.365</v>
+      </c>
+      <c r="B70">
+        <v>0.25</v>
+      </c>
+      <c r="C70">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.38</v>
+      </c>
+      <c r="B71">
+        <v>0.235</v>
+      </c>
+      <c r="C71">
+        <v>0.235</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.445</v>
+      </c>
+      <c r="B72">
+        <v>0.29</v>
+      </c>
+      <c r="C72">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.36</v>
+      </c>
+      <c r="B73">
+        <v>0.265</v>
+      </c>
+      <c r="C73">
+        <v>0.265</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.35</v>
+      </c>
+      <c r="B74">
+        <v>0.245</v>
+      </c>
+      <c r="C74">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.365</v>
+      </c>
+      <c r="B75">
+        <v>0.235</v>
+      </c>
+      <c r="C75">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.395</v>
+      </c>
+      <c r="B76">
+        <v>0.235</v>
+      </c>
+      <c r="C76">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.515</v>
+      </c>
+      <c r="B77">
+        <v>0.24</v>
+      </c>
+      <c r="C77">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.43</v>
+      </c>
+      <c r="B78">
+        <v>0.275</v>
+      </c>
+      <c r="C78">
+        <v>0.285</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.435</v>
+      </c>
+      <c r="B79">
+        <v>0.235</v>
+      </c>
+      <c r="C79">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.33</v>
+      </c>
+      <c r="B80">
+        <v>0.245</v>
+      </c>
+      <c r="C80">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.405</v>
+      </c>
+      <c r="B81">
+        <v>0.235</v>
+      </c>
+      <c r="C81">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.31</v>
+      </c>
+      <c r="B82">
+        <v>0.25</v>
+      </c>
+      <c r="C82">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.42</v>
+      </c>
+      <c r="B83">
+        <v>0.23</v>
+      </c>
+      <c r="C83">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.44</v>
+      </c>
+      <c r="B84">
+        <v>0.23</v>
+      </c>
+      <c r="C84">
+        <v>0.235</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.495</v>
+      </c>
+      <c r="B85">
+        <v>0.265</v>
+      </c>
+      <c r="C85">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.335</v>
+      </c>
+      <c r="B86">
+        <v>0.25</v>
+      </c>
+      <c r="C86">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.38</v>
+      </c>
+      <c r="B87">
+        <v>0.245</v>
+      </c>
+      <c r="C87">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.355</v>
+      </c>
+      <c r="B88">
+        <v>0.325</v>
+      </c>
+      <c r="C88">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.36</v>
+      </c>
+      <c r="B89">
+        <v>0.215</v>
+      </c>
+      <c r="C89">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.32</v>
+      </c>
+      <c r="B90">
+        <v>0.22</v>
+      </c>
+      <c r="C90">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.455</v>
+      </c>
+      <c r="B91">
+        <v>0.275</v>
+      </c>
+      <c r="C91">
+        <v>0.285</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.455</v>
+      </c>
+      <c r="B92">
+        <v>0.265</v>
+      </c>
+      <c r="C92">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.425</v>
+      </c>
+      <c r="B93">
+        <v>0.27</v>
+      </c>
+      <c r="C93">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.41</v>
+      </c>
+      <c r="B94">
+        <v>0.22</v>
+      </c>
+      <c r="C94">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.375</v>
+      </c>
+      <c r="B95">
+        <v>0.27</v>
+      </c>
+      <c r="C95">
+        <v>0.265</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.425</v>
+      </c>
+      <c r="B96">
+        <v>0.245</v>
+      </c>
+      <c r="C96">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.4</v>
+      </c>
+      <c r="B97">
+        <v>0.245</v>
+      </c>
+      <c r="C97">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.395</v>
+      </c>
+      <c r="B98">
+        <v>0.23</v>
+      </c>
+      <c r="C98">
+        <v>0.235</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.415</v>
+      </c>
+      <c r="B99">
+        <v>0.26</v>
+      </c>
+      <c r="C99">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.415</v>
+      </c>
+      <c r="B100">
+        <v>0.21</v>
+      </c>
+      <c r="C100">
+        <v>0.205</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.41</v>
+      </c>
+      <c r="B101">
+        <v>0.265</v>
+      </c>
+      <c r="C101">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>0.3929</v>
+      </c>
+      <c r="B103">
+        <v>0.25165</v>
+      </c>
+      <c r="C103">
+        <v>0.25205</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>0.00449027006454236</v>
+      </c>
+      <c r="B104">
+        <v>0.002605409097561565</v>
+      </c>
+      <c r="C104">
+        <v>0.002765310912798857</v>
       </c>
     </row>
   </sheetData>
@@ -1562,7 +2662,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2135,26 +3235,576 @@
         <v>0.15</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.44</v>
+      </c>
+      <c r="B52">
+        <v>0.24</v>
+      </c>
+      <c r="C52">
+        <v>0.23</v>
+      </c>
+    </row>
     <row r="53">
       <c r="A53">
-        <v>0.3403</v>
+        <v>0.36</v>
       </c>
       <c r="B53">
-        <v>0.1611</v>
+        <v>0.175</v>
       </c>
       <c r="C53">
-        <v>0.1651</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.005778937830516919</v>
+        <v>0.33</v>
       </c>
       <c r="B54">
-        <v>0.00427687183032894</v>
+        <v>0.15</v>
       </c>
       <c r="C54">
-        <v>0.004136670257142395</v>
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.345</v>
+      </c>
+      <c r="B55">
+        <v>0.195</v>
+      </c>
+      <c r="C55">
+        <v>0.195</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.325</v>
+      </c>
+      <c r="B56">
+        <v>0.155</v>
+      </c>
+      <c r="C56">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.245</v>
+      </c>
+      <c r="B57">
+        <v>0.16</v>
+      </c>
+      <c r="C57">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.315</v>
+      </c>
+      <c r="B58">
+        <v>0.2</v>
+      </c>
+      <c r="C58">
+        <v>0.205</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.4</v>
+      </c>
+      <c r="B59">
+        <v>0.17</v>
+      </c>
+      <c r="C59">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.385</v>
+      </c>
+      <c r="B60">
+        <v>0.15</v>
+      </c>
+      <c r="C60">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.35</v>
+      </c>
+      <c r="B61">
+        <v>0.145</v>
+      </c>
+      <c r="C61">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.36</v>
+      </c>
+      <c r="B62">
+        <v>0.14</v>
+      </c>
+      <c r="C62">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.345</v>
+      </c>
+      <c r="B63">
+        <v>0.17</v>
+      </c>
+      <c r="C63">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.28</v>
+      </c>
+      <c r="B64">
+        <v>0.16</v>
+      </c>
+      <c r="C64">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.405</v>
+      </c>
+      <c r="B65">
+        <v>0.145</v>
+      </c>
+      <c r="C65">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.28</v>
+      </c>
+      <c r="B66">
+        <v>0.215</v>
+      </c>
+      <c r="C66">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.385</v>
+      </c>
+      <c r="B67">
+        <v>0.21</v>
+      </c>
+      <c r="C67">
+        <v>0.205</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.42</v>
+      </c>
+      <c r="B68">
+        <v>0.195</v>
+      </c>
+      <c r="C68">
+        <v>0.195</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.375</v>
+      </c>
+      <c r="B69">
+        <v>0.185</v>
+      </c>
+      <c r="C69">
+        <v>0.195</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.305</v>
+      </c>
+      <c r="B70">
+        <v>0.155</v>
+      </c>
+      <c r="C70">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.36</v>
+      </c>
+      <c r="B71">
+        <v>0.19</v>
+      </c>
+      <c r="C71">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.32</v>
+      </c>
+      <c r="B72">
+        <v>0.165</v>
+      </c>
+      <c r="C72">
+        <v>0.165</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.385</v>
+      </c>
+      <c r="B73">
+        <v>0.175</v>
+      </c>
+      <c r="C73">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.34</v>
+      </c>
+      <c r="B74">
+        <v>0.165</v>
+      </c>
+      <c r="C74">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.265</v>
+      </c>
+      <c r="B75">
+        <v>0.205</v>
+      </c>
+      <c r="C75">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.365</v>
+      </c>
+      <c r="B76">
+        <v>0.2</v>
+      </c>
+      <c r="C76">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.395</v>
+      </c>
+      <c r="B77">
+        <v>0.155</v>
+      </c>
+      <c r="C77">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.365</v>
+      </c>
+      <c r="B78">
+        <v>0.155</v>
+      </c>
+      <c r="C78">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.305</v>
+      </c>
+      <c r="B79">
+        <v>0.13</v>
+      </c>
+      <c r="C79">
+        <v>0.135</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.295</v>
+      </c>
+      <c r="B80">
+        <v>0.25</v>
+      </c>
+      <c r="C80">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.35</v>
+      </c>
+      <c r="B81">
+        <v>0.165</v>
+      </c>
+      <c r="C81">
+        <v>0.165</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.335</v>
+      </c>
+      <c r="B82">
+        <v>0.17</v>
+      </c>
+      <c r="C82">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.32</v>
+      </c>
+      <c r="B83">
+        <v>0.19</v>
+      </c>
+      <c r="C83">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.295</v>
+      </c>
+      <c r="B84">
+        <v>0.135</v>
+      </c>
+      <c r="C84">
+        <v>0.145</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.34</v>
+      </c>
+      <c r="B85">
+        <v>0.16</v>
+      </c>
+      <c r="C85">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.38</v>
+      </c>
+      <c r="B86">
+        <v>0.14</v>
+      </c>
+      <c r="C86">
+        <v>0.135</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.39</v>
+      </c>
+      <c r="B87">
+        <v>0.14</v>
+      </c>
+      <c r="C87">
+        <v>0.135</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.385</v>
+      </c>
+      <c r="B88">
+        <v>0.165</v>
+      </c>
+      <c r="C88">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.315</v>
+      </c>
+      <c r="B89">
+        <v>0.175</v>
+      </c>
+      <c r="C89">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.335</v>
+      </c>
+      <c r="B90">
+        <v>0.22</v>
+      </c>
+      <c r="C90">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.365</v>
+      </c>
+      <c r="B91">
+        <v>0.215</v>
+      </c>
+      <c r="C91">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.355</v>
+      </c>
+      <c r="B92">
+        <v>0.15</v>
+      </c>
+      <c r="C92">
+        <v>0.145</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.32</v>
+      </c>
+      <c r="B93">
+        <v>0.155</v>
+      </c>
+      <c r="C93">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.32</v>
+      </c>
+      <c r="B94">
+        <v>0.16</v>
+      </c>
+      <c r="C94">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.36</v>
+      </c>
+      <c r="B95">
+        <v>0.115</v>
+      </c>
+      <c r="C95">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.28</v>
+      </c>
+      <c r="B96">
+        <v>0.195</v>
+      </c>
+      <c r="C96">
+        <v>0.195</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.335</v>
+      </c>
+      <c r="B97">
+        <v>0.14</v>
+      </c>
+      <c r="C97">
+        <v>0.135</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.29</v>
+      </c>
+      <c r="B98">
+        <v>0.125</v>
+      </c>
+      <c r="C98">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.27</v>
+      </c>
+      <c r="B99">
+        <v>0.165</v>
+      </c>
+      <c r="C99">
+        <v>0.165</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.315</v>
+      </c>
+      <c r="B100">
+        <v>0.19</v>
+      </c>
+      <c r="C100">
+        <v>0.195</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.345</v>
+      </c>
+      <c r="B101">
+        <v>0.125</v>
+      </c>
+      <c r="C101">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>0.3406</v>
+      </c>
+      <c r="B103">
+        <v>0.16555</v>
+      </c>
+      <c r="C103">
+        <v>0.1694</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>0.004139779919002673</v>
+      </c>
+      <c r="B104">
+        <v>0.003019210379077833</v>
+      </c>
+      <c r="C104">
+        <v>0.002893985403410237</v>
       </c>
     </row>
   </sheetData>
@@ -2164,7 +3814,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2737,26 +4387,576 @@
         <v>0.125</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.285</v>
+      </c>
+      <c r="B52">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C52">
+        <v>0.075</v>
+      </c>
+    </row>
     <row r="53">
       <c r="A53">
-        <v>0.2719</v>
+        <v>0.27</v>
       </c>
       <c r="B53">
-        <v>0.1055</v>
+        <v>0.12</v>
       </c>
       <c r="C53">
-        <v>0.1104</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.00571944410028864</v>
+        <v>0.26</v>
       </c>
       <c r="B54">
-        <v>0.0040739340661712</v>
+        <v>0.095</v>
       </c>
       <c r="C54">
-        <v>0.004280568339148722</v>
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.315</v>
+      </c>
+      <c r="B55">
+        <v>0.095</v>
+      </c>
+      <c r="C55">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.355</v>
+      </c>
+      <c r="B56">
+        <v>0.11</v>
+      </c>
+      <c r="C56">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.32</v>
+      </c>
+      <c r="B57">
+        <v>0.115</v>
+      </c>
+      <c r="C57">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.22</v>
+      </c>
+      <c r="B58">
+        <v>0.12</v>
+      </c>
+      <c r="C58">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.275</v>
+      </c>
+      <c r="B59">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C59">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.315</v>
+      </c>
+      <c r="B60">
+        <v>0.115</v>
+      </c>
+      <c r="C60">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.34</v>
+      </c>
+      <c r="B61">
+        <v>0.115</v>
+      </c>
+      <c r="C61">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.265</v>
+      </c>
+      <c r="B62">
+        <v>0.125</v>
+      </c>
+      <c r="C62">
+        <v>0.135</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.27</v>
+      </c>
+      <c r="B63">
+        <v>0.105</v>
+      </c>
+      <c r="C63">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.305</v>
+      </c>
+      <c r="B64">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="C64">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.345</v>
+      </c>
+      <c r="B65">
+        <v>0.12</v>
+      </c>
+      <c r="C65">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.275</v>
+      </c>
+      <c r="B66">
+        <v>0.1</v>
+      </c>
+      <c r="C66">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.305</v>
+      </c>
+      <c r="B67">
+        <v>0.075</v>
+      </c>
+      <c r="C67">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.27</v>
+      </c>
+      <c r="B68">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C68">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.285</v>
+      </c>
+      <c r="B69">
+        <v>0.075</v>
+      </c>
+      <c r="C69">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.285</v>
+      </c>
+      <c r="B70">
+        <v>0.165</v>
+      </c>
+      <c r="C70">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.255</v>
+      </c>
+      <c r="B71">
+        <v>0.15</v>
+      </c>
+      <c r="C71">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.325</v>
+      </c>
+      <c r="B72">
+        <v>0.11</v>
+      </c>
+      <c r="C72">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.285</v>
+      </c>
+      <c r="B73">
+        <v>0.08</v>
+      </c>
+      <c r="C73">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.255</v>
+      </c>
+      <c r="B74">
+        <v>0.15</v>
+      </c>
+      <c r="C74">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.265</v>
+      </c>
+      <c r="B75">
+        <v>0.09</v>
+      </c>
+      <c r="C75">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.275</v>
+      </c>
+      <c r="B76">
+        <v>0.095</v>
+      </c>
+      <c r="C76">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.32</v>
+      </c>
+      <c r="B77">
+        <v>0.08</v>
+      </c>
+      <c r="C77">
+        <v>0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.295</v>
+      </c>
+      <c r="B78">
+        <v>0.135</v>
+      </c>
+      <c r="C78">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.265</v>
+      </c>
+      <c r="B79">
+        <v>0.155</v>
+      </c>
+      <c r="C79">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.28</v>
+      </c>
+      <c r="B80">
+        <v>0.1</v>
+      </c>
+      <c r="C80">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.31</v>
+      </c>
+      <c r="B81">
+        <v>0.09</v>
+      </c>
+      <c r="C81">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.285</v>
+      </c>
+      <c r="B82">
+        <v>0.14</v>
+      </c>
+      <c r="C82">
+        <v>0.145</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.28</v>
+      </c>
+      <c r="B83">
+        <v>0.045</v>
+      </c>
+      <c r="C83">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.26</v>
+      </c>
+      <c r="B84">
+        <v>0.15</v>
+      </c>
+      <c r="C84">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.255</v>
+      </c>
+      <c r="B85">
+        <v>0.12</v>
+      </c>
+      <c r="C85">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.25</v>
+      </c>
+      <c r="B86">
+        <v>0.095</v>
+      </c>
+      <c r="C86">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.325</v>
+      </c>
+      <c r="B87">
+        <v>0.075</v>
+      </c>
+      <c r="C87">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.27</v>
+      </c>
+      <c r="B88">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C88">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.215</v>
+      </c>
+      <c r="B89">
+        <v>0.095</v>
+      </c>
+      <c r="C89">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.22</v>
+      </c>
+      <c r="B90">
+        <v>0.14</v>
+      </c>
+      <c r="C90">
+        <v>0.145</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.31</v>
+      </c>
+      <c r="B91">
+        <v>0.09</v>
+      </c>
+      <c r="C91">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.345</v>
+      </c>
+      <c r="B92">
+        <v>0.095</v>
+      </c>
+      <c r="C92">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.28</v>
+      </c>
+      <c r="B93">
+        <v>0.09</v>
+      </c>
+      <c r="C93">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.335</v>
+      </c>
+      <c r="B94">
+        <v>0.115</v>
+      </c>
+      <c r="C94">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.265</v>
+      </c>
+      <c r="B95">
+        <v>0.065</v>
+      </c>
+      <c r="C95">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.295</v>
+      </c>
+      <c r="B96">
+        <v>0.135</v>
+      </c>
+      <c r="C96">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.315</v>
+      </c>
+      <c r="B97">
+        <v>0.15</v>
+      </c>
+      <c r="C97">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.23</v>
+      </c>
+      <c r="B98">
+        <v>0.1</v>
+      </c>
+      <c r="C98">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.32</v>
+      </c>
+      <c r="B99">
+        <v>0.095</v>
+      </c>
+      <c r="C99">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.27</v>
+      </c>
+      <c r="B100">
+        <v>0.11</v>
+      </c>
+      <c r="C100">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.315</v>
+      </c>
+      <c r="B101">
+        <v>0.1</v>
+      </c>
+      <c r="C101">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>0.27925</v>
+      </c>
+      <c r="B103">
+        <v>0.1053</v>
+      </c>
+      <c r="C103">
+        <v>0.10995</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>0.0037661269390731</v>
+      </c>
+      <c r="B104">
+        <v>0.002789609146801608</v>
+      </c>
+      <c r="C104">
+        <v>0.002874034752325684</v>
       </c>
     </row>
   </sheetData>
@@ -2766,7 +4966,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3339,26 +5539,576 @@
         <v>0.065</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.18</v>
+      </c>
+      <c r="B52">
+        <v>0.08</v>
+      </c>
+      <c r="C52">
+        <v>0.09</v>
+      </c>
+    </row>
     <row r="53">
       <c r="A53">
-        <v>0.2124</v>
+        <v>0.18</v>
       </c>
       <c r="B53">
-        <v>0.0641</v>
+        <v>0.055</v>
       </c>
       <c r="C53">
-        <v>0.0704</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.004558553297183802</v>
+        <v>0.205</v>
       </c>
       <c r="B54">
-        <v>0.002682863228351534</v>
+        <v>0.065</v>
       </c>
       <c r="C54">
-        <v>0.00285657137141714</v>
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.19</v>
+      </c>
+      <c r="B55">
+        <v>0.04</v>
+      </c>
+      <c r="C55">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.2</v>
+      </c>
+      <c r="B56">
+        <v>0.065</v>
+      </c>
+      <c r="C56">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.175</v>
+      </c>
+      <c r="B57">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="C57">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.135</v>
+      </c>
+      <c r="B58">
+        <v>0.04</v>
+      </c>
+      <c r="C58">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.245</v>
+      </c>
+      <c r="B59">
+        <v>0.015</v>
+      </c>
+      <c r="C59">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.215</v>
+      </c>
+      <c r="B60">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="C60">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.22</v>
+      </c>
+      <c r="B61">
+        <v>0.055</v>
+      </c>
+      <c r="C61">
+        <v>0.055</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.265</v>
+      </c>
+      <c r="B62">
+        <v>0.025</v>
+      </c>
+      <c r="C62">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.25</v>
+      </c>
+      <c r="B63">
+        <v>0.055</v>
+      </c>
+      <c r="C63">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.22</v>
+      </c>
+      <c r="B64">
+        <v>0.065</v>
+      </c>
+      <c r="C64">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.23</v>
+      </c>
+      <c r="B65">
+        <v>0.095</v>
+      </c>
+      <c r="C65">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.2</v>
+      </c>
+      <c r="B66">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="C66">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.215</v>
+      </c>
+      <c r="B67">
+        <v>0.04</v>
+      </c>
+      <c r="C67">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.21</v>
+      </c>
+      <c r="B68">
+        <v>0.035</v>
+      </c>
+      <c r="C68">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.22</v>
+      </c>
+      <c r="B69">
+        <v>0.06</v>
+      </c>
+      <c r="C69">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.245</v>
+      </c>
+      <c r="B70">
+        <v>0.09</v>
+      </c>
+      <c r="C70">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.265</v>
+      </c>
+      <c r="B71">
+        <v>0.08</v>
+      </c>
+      <c r="C71">
+        <v>0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.265</v>
+      </c>
+      <c r="B72">
+        <v>0.05</v>
+      </c>
+      <c r="C72">
+        <v>0.055</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.24</v>
+      </c>
+      <c r="B73">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="C73">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.22</v>
+      </c>
+      <c r="B74">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="C74">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.205</v>
+      </c>
+      <c r="B75">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C75">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.21</v>
+      </c>
+      <c r="B76">
+        <v>0.055</v>
+      </c>
+      <c r="C76">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.215</v>
+      </c>
+      <c r="B77">
+        <v>0.04</v>
+      </c>
+      <c r="C77">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.255</v>
+      </c>
+      <c r="B78">
+        <v>0.075</v>
+      </c>
+      <c r="C78">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.285</v>
+      </c>
+      <c r="B79">
+        <v>0.09</v>
+      </c>
+      <c r="C79">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.19</v>
+      </c>
+      <c r="B80">
+        <v>0.045</v>
+      </c>
+      <c r="C80">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.22</v>
+      </c>
+      <c r="B81">
+        <v>0.03</v>
+      </c>
+      <c r="C81">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.23</v>
+      </c>
+      <c r="B82">
+        <v>0.04</v>
+      </c>
+      <c r="C82">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.26</v>
+      </c>
+      <c r="B83">
+        <v>0.08</v>
+      </c>
+      <c r="C83">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.14</v>
+      </c>
+      <c r="B84">
+        <v>0.095</v>
+      </c>
+      <c r="C84">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.275</v>
+      </c>
+      <c r="B85">
+        <v>0.05</v>
+      </c>
+      <c r="C85">
+        <v>0.055</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.245</v>
+      </c>
+      <c r="B86">
+        <v>0.06</v>
+      </c>
+      <c r="C86">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.2</v>
+      </c>
+      <c r="B87">
+        <v>0.04</v>
+      </c>
+      <c r="C87">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.225</v>
+      </c>
+      <c r="B88">
+        <v>0.055</v>
+      </c>
+      <c r="C88">
+        <v>0.055</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.235</v>
+      </c>
+      <c r="B89">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C89">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.17</v>
+      </c>
+      <c r="B90">
+        <v>0.08</v>
+      </c>
+      <c r="C90">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.26</v>
+      </c>
+      <c r="B91">
+        <v>0.04</v>
+      </c>
+      <c r="C91">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.155</v>
+      </c>
+      <c r="B92">
+        <v>0.04</v>
+      </c>
+      <c r="C92">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.215</v>
+      </c>
+      <c r="B93">
+        <v>0.05</v>
+      </c>
+      <c r="C93">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.16</v>
+      </c>
+      <c r="B94">
+        <v>0.045</v>
+      </c>
+      <c r="C94">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.195</v>
+      </c>
+      <c r="B95">
+        <v>0.045</v>
+      </c>
+      <c r="C95">
+        <v>0.055</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.135</v>
+      </c>
+      <c r="B96">
+        <v>0.02</v>
+      </c>
+      <c r="C96">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.195</v>
+      </c>
+      <c r="B97">
+        <v>0.095</v>
+      </c>
+      <c r="C97">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.275</v>
+      </c>
+      <c r="B98">
+        <v>0.11</v>
+      </c>
+      <c r="C98">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.175</v>
+      </c>
+      <c r="B99">
+        <v>0.035</v>
+      </c>
+      <c r="C99">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.14</v>
+      </c>
+      <c r="B100">
+        <v>0.05</v>
+      </c>
+      <c r="C100">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.225</v>
+      </c>
+      <c r="B101">
+        <v>0.075</v>
+      </c>
+      <c r="C101">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>0.213</v>
+      </c>
+      <c r="B103">
+        <v>0.0622</v>
+      </c>
+      <c r="C103">
+        <v>0.06760000000000001</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>0.003526952500303051</v>
+      </c>
+      <c r="B104">
+        <v>0.002079627006183677</v>
+      </c>
+      <c r="C104">
+        <v>0.002179426298340687</v>
       </c>
     </row>
   </sheetData>
@@ -3368,7 +6118,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3941,26 +6691,576 @@
         <v>0.03</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.155</v>
+      </c>
+      <c r="B52">
+        <v>0.015</v>
+      </c>
+      <c r="C52">
+        <v>0.015</v>
+      </c>
+    </row>
     <row r="53">
       <c r="A53">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="B53">
-        <v>0.0177</v>
+        <v>0.01</v>
       </c>
       <c r="C53">
-        <v>0.0201</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.003152582355816273</v>
+        <v>0.065</v>
       </c>
       <c r="B54">
-        <v>0.001703597633820611</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>0.001804133575759753</v>
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.12</v>
+      </c>
+      <c r="B55">
+        <v>0.01</v>
+      </c>
+      <c r="C55">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.155</v>
+      </c>
+      <c r="B56">
+        <v>0.01</v>
+      </c>
+      <c r="C56">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.125</v>
+      </c>
+      <c r="B57">
+        <v>0.015</v>
+      </c>
+      <c r="C57">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.105</v>
+      </c>
+      <c r="B58">
+        <v>0.025</v>
+      </c>
+      <c r="C58">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.13</v>
+      </c>
+      <c r="B59">
+        <v>0.02</v>
+      </c>
+      <c r="C59">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.095</v>
+      </c>
+      <c r="B60">
+        <v>0.03</v>
+      </c>
+      <c r="C60">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.065</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.075</v>
+      </c>
+      <c r="B62">
+        <v>0.01</v>
+      </c>
+      <c r="C62">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.11</v>
+      </c>
+      <c r="B63">
+        <v>0.01</v>
+      </c>
+      <c r="C63">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="B64">
+        <v>0.045</v>
+      </c>
+      <c r="C64">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.1</v>
+      </c>
+      <c r="B65">
+        <v>0.02</v>
+      </c>
+      <c r="C65">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.065</v>
+      </c>
+      <c r="B66">
+        <v>0.03</v>
+      </c>
+      <c r="C66">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.095</v>
+      </c>
+      <c r="B67">
+        <v>0.01</v>
+      </c>
+      <c r="C67">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.11</v>
+      </c>
+      <c r="B68">
+        <v>0.005</v>
+      </c>
+      <c r="C68">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.115</v>
+      </c>
+      <c r="B69">
+        <v>0.02</v>
+      </c>
+      <c r="C69">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.13</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.125</v>
+      </c>
+      <c r="B71">
+        <v>0.005</v>
+      </c>
+      <c r="C71">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.15</v>
+      </c>
+      <c r="B72">
+        <v>0.02</v>
+      </c>
+      <c r="C72">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.065</v>
+      </c>
+      <c r="B73">
+        <v>0.025</v>
+      </c>
+      <c r="C73">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.11</v>
+      </c>
+      <c r="B74">
+        <v>0.035</v>
+      </c>
+      <c r="C74">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.1</v>
+      </c>
+      <c r="B75">
+        <v>0.035</v>
+      </c>
+      <c r="C75">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.115</v>
+      </c>
+      <c r="B76">
+        <v>0.01</v>
+      </c>
+      <c r="C76">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.105</v>
+      </c>
+      <c r="B77">
+        <v>0.02</v>
+      </c>
+      <c r="C77">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.1</v>
+      </c>
+      <c r="B78">
+        <v>0.005</v>
+      </c>
+      <c r="C78">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.13</v>
+      </c>
+      <c r="B79">
+        <v>0.02</v>
+      </c>
+      <c r="C79">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.105</v>
+      </c>
+      <c r="B80">
+        <v>0.025</v>
+      </c>
+      <c r="C80">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.175</v>
+      </c>
+      <c r="B81">
+        <v>0.02</v>
+      </c>
+      <c r="C81">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.08</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.115</v>
+      </c>
+      <c r="B83">
+        <v>0.015</v>
+      </c>
+      <c r="C83">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.11</v>
+      </c>
+      <c r="B84">
+        <v>0.005</v>
+      </c>
+      <c r="C84">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.075</v>
+      </c>
+      <c r="B85">
+        <v>0.005</v>
+      </c>
+      <c r="C85">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.135</v>
+      </c>
+      <c r="B86">
+        <v>0.025</v>
+      </c>
+      <c r="C86">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.09</v>
+      </c>
+      <c r="B87">
+        <v>0.02</v>
+      </c>
+      <c r="C87">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.115</v>
+      </c>
+      <c r="B88">
+        <v>0.02</v>
+      </c>
+      <c r="C88">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.115</v>
+      </c>
+      <c r="B89">
+        <v>0.04</v>
+      </c>
+      <c r="C89">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.1</v>
+      </c>
+      <c r="B90">
+        <v>0.045</v>
+      </c>
+      <c r="C90">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.095</v>
+      </c>
+      <c r="B91">
+        <v>0.01</v>
+      </c>
+      <c r="C91">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.095</v>
+      </c>
+      <c r="B92">
+        <v>0.005</v>
+      </c>
+      <c r="C92">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.095</v>
+      </c>
+      <c r="B93">
+        <v>0.005</v>
+      </c>
+      <c r="C93">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.09</v>
+      </c>
+      <c r="B94">
+        <v>0.03</v>
+      </c>
+      <c r="C94">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.13</v>
+      </c>
+      <c r="B95">
+        <v>0.015</v>
+      </c>
+      <c r="C95">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.21</v>
+      </c>
+      <c r="B96">
+        <v>0.015</v>
+      </c>
+      <c r="C96">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.105</v>
+      </c>
+      <c r="B97">
+        <v>0.035</v>
+      </c>
+      <c r="C97">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.095</v>
+      </c>
+      <c r="B98">
+        <v>0.03</v>
+      </c>
+      <c r="C98">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.13</v>
+      </c>
+      <c r="B99">
+        <v>0.015</v>
+      </c>
+      <c r="C99">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.075</v>
+      </c>
+      <c r="B100">
+        <v>0.01</v>
+      </c>
+      <c r="C100">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.12</v>
+      </c>
+      <c r="B101">
+        <v>0.025</v>
+      </c>
+      <c r="C101">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>0.1096</v>
+      </c>
+      <c r="B103">
+        <v>0.0176</v>
+      </c>
+      <c r="C103">
+        <v>0.0206</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>0.00253429009046444</v>
+      </c>
+      <c r="B104">
+        <v>0.00118381338960756</v>
+      </c>
+      <c r="C104">
+        <v>0.001241699714833736</v>
       </c>
     </row>
   </sheetData>
@@ -3970,7 +7270,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4543,26 +7843,576 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.04</v>
+      </c>
+      <c r="B52">
+        <v>0.005</v>
+      </c>
+      <c r="C52">
+        <v>0.005</v>
+      </c>
+    </row>
     <row r="53">
       <c r="A53">
-        <v>0.0397</v>
+        <v>0.045</v>
       </c>
       <c r="B53">
-        <v>0.0019</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>0.0023</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.002417664584018289</v>
+        <v>0.04</v>
       </c>
       <c r="B54">
-        <v>0.0004492624341004683</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>0.0005192223384396071</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.03</v>
+      </c>
+      <c r="B55">
+        <v>0.005</v>
+      </c>
+      <c r="C55">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.04</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.035</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.02</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.05</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.035</v>
+      </c>
+      <c r="B60">
+        <v>0.005</v>
+      </c>
+      <c r="C60">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.025</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.035</v>
+      </c>
+      <c r="B62">
+        <v>0.005</v>
+      </c>
+      <c r="C62">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.015</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.04</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.025</v>
+      </c>
+      <c r="B65">
+        <v>0.015</v>
+      </c>
+      <c r="C65">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.035</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.05</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.065</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.025</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.03</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.035</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.035</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.06</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.055</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.025</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.055</v>
+      </c>
+      <c r="B76">
+        <v>0.01</v>
+      </c>
+      <c r="C76">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.025</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.095</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.035</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.05</v>
+      </c>
+      <c r="B80">
+        <v>0.005</v>
+      </c>
+      <c r="C80">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.09</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.045</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.02</v>
+      </c>
+      <c r="B83">
+        <v>0.005</v>
+      </c>
+      <c r="C83">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.045</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.06</v>
+      </c>
+      <c r="B85">
+        <v>0.005</v>
+      </c>
+      <c r="C85">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.06</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.075</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.04</v>
+      </c>
+      <c r="B88">
+        <v>0.005</v>
+      </c>
+      <c r="C88">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.03</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.075</v>
+      </c>
+      <c r="B90">
+        <v>0.01</v>
+      </c>
+      <c r="C90">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.075</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.03</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.05</v>
+      </c>
+      <c r="B93">
+        <v>0.005</v>
+      </c>
+      <c r="C93">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.075</v>
+      </c>
+      <c r="B94">
+        <v>0.005</v>
+      </c>
+      <c r="C94">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.05</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.04</v>
+      </c>
+      <c r="B96">
+        <v>0.005</v>
+      </c>
+      <c r="C96">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.045</v>
+      </c>
+      <c r="B97">
+        <v>0.005</v>
+      </c>
+      <c r="C97">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.035</v>
+      </c>
+      <c r="B98">
+        <v>0.01</v>
+      </c>
+      <c r="C98">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.055</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.04</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.02</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>0.0419</v>
+      </c>
+      <c r="B103">
+        <v>0.002</v>
+      </c>
+      <c r="C103">
+        <v>0.0027</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>0.001770664430447657</v>
+      </c>
+      <c r="B104">
+        <v>0.0003333333333333334</v>
+      </c>
+      <c r="C104">
+        <v>0.0003919647479510927</v>
       </c>
     </row>
   </sheetData>
@@ -4572,7 +8422,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5145,26 +8995,576 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.005</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
     <row r="53">
       <c r="A53">
-        <v>0.0122</v>
+        <v>0.015</v>
       </c>
       <c r="B53">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.001089467197996435</v>
+        <v>0.03</v>
       </c>
       <c r="B54">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>0.0001</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.01</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.03</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.015</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.015</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.035</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.005</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.005</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.005</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.01</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.01</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.005</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.01</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.005</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.005</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.02</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.005</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.015</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.015</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.015</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.005</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.015</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.005</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.015</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.015</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.025</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.01</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.025</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.015</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.015</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.005</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.01</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.015</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.035</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.015</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.01</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.02</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.015</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.01</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.01</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>0.01185</v>
+      </c>
+      <c r="B103">
+        <v>5e-05</v>
+      </c>
+      <c r="C103">
+        <v>5e-05</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>0.0008368260140422129</v>
+      </c>
+      <c r="B104">
+        <v>5e-05</v>
+      </c>
+      <c r="C104">
+        <v>5e-05</v>
       </c>
     </row>
   </sheetData>
